--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>869141.9921597125</v>
+        <v>938728.8864087515</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16458937.45807428</v>
+        <v>16458937.45807429</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5062160.77054035</v>
+        <v>5062160.770540351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,14 +1381,14 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>39.30158701610652</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>39.30158701610651</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.30158701610651</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.95846462769999</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.34312238840652</v>
       </c>
       <c r="R13" t="n">
         <v>44.62033039975765</v>
@@ -1584,7 +1584,7 @@
         <v>44.62033039975765</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.30158701610652</v>
+        <v>39.3015870161068</v>
       </c>
       <c r="S14" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.30158701610651</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>39.30158701610679</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.30158701610651</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.62033039975765</v>
+        <v>39.30158701610679</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.30158701610655</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>39.3015870161068</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.30158701610655</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="S18" t="n">
-        <v>44.62033039975768</v>
+        <v>39.30158701610679</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39.30158701610679</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="V19" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="W19" t="n">
-        <v>39.30158701610654</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>39.30158701610655</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.62033039975768</v>
+        <v>39.3015870161068</v>
       </c>
     </row>
     <row r="21">
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.30158701610655</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="W21" t="n">
-        <v>44.62033039975768</v>
+        <v>39.30158701610679</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>11.95846462770002</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>27.34312238840652</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="S22" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>11.95846462770027</v>
       </c>
       <c r="X22" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>64.36884240478132</v>
+        <v>56.6960763901314</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="X23" t="n">
-        <v>56.69607639013137</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>8.558774771581954</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="U24" t="n">
-        <v>8.558774771581929</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>56.69607639013137</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>27.34312238840652</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.35295400172485</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.193866836708596</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.193866836708592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="V26" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>8.558774771581954</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>60.51550128629469</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>60.54941750861801</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.13730161854946</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.34312238840652</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>64.36884240478132</v>
+        <v>29.35295400172485</v>
       </c>
       <c r="W28" t="n">
-        <v>56.69607639013137</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>56.6960763901314</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>56.69607639013137</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>8.558774771581954</v>
       </c>
       <c r="D30" t="n">
-        <v>56.69607639013137</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.13730161854946</v>
       </c>
       <c r="S30" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="W30" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>27.34312238840652</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>29.35295400172487</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>56.69607639013137</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>56.6960763901314</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>56.69607639013137</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>56.6960763901314</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="T33" t="n">
-        <v>56.69607639013137</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Y33" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>27.34312238840652</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="S34" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>29.35295400172485</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>29.35295400172484</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>39.30158701610652</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>39.30158701610652</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="W36" t="n">
         <v>44.62033039975765</v>
@@ -3426,67 +3426,67 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>39.30158701610652</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11.95846462769999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>27.34312238840652</v>
+      </c>
+      <c r="R37" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="G37" t="n">
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,49 +3520,49 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="I38" t="n">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>39.30158701610652</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>44.62033039975765</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>39.30158701610651</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="H39" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>39.30158701610651</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,17 +3666,17 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="F40" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>39.30158701610651</v>
-      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>39.30158701610651</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>44.62033039975765</v>
@@ -3821,20 +3821,20 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="D42" t="n">
+      <c r="G42" t="n">
         <v>39.30158701610651</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="V42" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,52 +3909,52 @@
         <v>44.62033039975765</v>
       </c>
       <c r="F43" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="G43" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>39.30158701610651</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,55 +3991,55 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="H44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>39.30158701610652</v>
       </c>
       <c r="X44" t="n">
         <v>44.62033039975765</v>
@@ -4061,70 +4061,70 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>39.30158701610651</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="Y45" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>39.30158701610652</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,70 +4140,70 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>39.30158701610652</v>
+      </c>
+      <c r="V46" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="E46" t="n">
+      <c r="W46" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="X46" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
       <c r="Y46" t="n">
-        <v>39.30158701610652</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5029,10 +5029,10 @@
         <v>48.64066723981662</v>
       </c>
       <c r="F11" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="G11" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="H11" t="n">
         <v>3.569626431980612</v>
@@ -5044,16 +5044,16 @@
         <v>3.569626431980612</v>
       </c>
       <c r="K11" t="n">
-        <v>45.48609073350469</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="L11" t="n">
-        <v>56.72431480334927</v>
+        <v>47.74375352774068</v>
       </c>
       <c r="M11" t="n">
-        <v>100.8984418991093</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="N11" t="n">
-        <v>145.0725689948694</v>
+        <v>136.0920077192608</v>
       </c>
       <c r="O11" t="n">
         <v>178.4813215990306</v>
@@ -5065,28 +5065,28 @@
         <v>178.4813215990306</v>
       </c>
       <c r="R11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="S11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="T11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="U11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="V11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="W11" t="n">
-        <v>133.4102807911946</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="X11" t="n">
-        <v>88.33923998335855</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.64066723981662</v>
+        <v>93.71170804765264</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="C12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="D12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="E12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="F12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="G12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="H12" t="n">
-        <v>3.569626431980612</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="I12" t="n">
         <v>3.569626431980612</v>
@@ -5129,10 +5129,10 @@
         <v>46.50277536579267</v>
       </c>
       <c r="M12" t="n">
-        <v>64.37402871218762</v>
+        <v>90.67690246155274</v>
       </c>
       <c r="N12" t="n">
-        <v>108.5481558079477</v>
+        <v>134.8510295573128</v>
       </c>
       <c r="O12" t="n">
         <v>152.7222829037078</v>
@@ -5153,19 +5153,19 @@
         <v>93.71170804765264</v>
       </c>
       <c r="U12" t="n">
+        <v>93.71170804765264</v>
+      </c>
+      <c r="V12" t="n">
+        <v>93.71170804765264</v>
+      </c>
+      <c r="W12" t="n">
+        <v>93.71170804765264</v>
+      </c>
+      <c r="X12" t="n">
         <v>48.64066723981662</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>48.64066723981662</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3.569626431980612</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3.569626431980612</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3.569626431980612</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="C13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="D13" t="n">
-        <v>43.26819917552254</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26819917552254</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="F13" t="n">
-        <v>43.26819917552254</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="G13" t="n">
-        <v>43.26819917552254</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="H13" t="n">
-        <v>43.26819917552254</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="I13" t="n">
-        <v>3.569626431980612</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="J13" t="n">
         <v>3.569626431980612</v>
@@ -5208,43 +5208,43 @@
         <v>91.91788062350075</v>
       </c>
       <c r="M13" t="n">
-        <v>136.0920077192608</v>
+        <v>134.3071945032705</v>
       </c>
       <c r="N13" t="n">
-        <v>178.4813215990306</v>
+        <v>134.3071945032705</v>
       </c>
       <c r="O13" t="n">
-        <v>178.4813215990306</v>
+        <v>134.3071945032705</v>
       </c>
       <c r="P13" t="n">
         <v>178.4813215990306</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.4813215990306</v>
+        <v>150.8620060551856</v>
       </c>
       <c r="R13" t="n">
-        <v>133.4102807911946</v>
+        <v>105.7909652473496</v>
       </c>
       <c r="S13" t="n">
-        <v>133.4102807911946</v>
+        <v>105.7909652473496</v>
       </c>
       <c r="T13" t="n">
-        <v>88.33923998335855</v>
+        <v>60.71992443951359</v>
       </c>
       <c r="U13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="V13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="W13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="X13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.33923998335855</v>
+        <v>15.64888363167758</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H14" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I14" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J14" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K14" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L14" t="n">
-        <v>47.74375352774068</v>
+        <v>45.95894031175069</v>
       </c>
       <c r="M14" t="n">
-        <v>91.91788062350075</v>
+        <v>90.13306740751106</v>
       </c>
       <c r="N14" t="n">
-        <v>136.0920077192608</v>
+        <v>134.3071945032714</v>
       </c>
       <c r="O14" t="n">
-        <v>169.500760323422</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="P14" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R14" t="n">
-        <v>138.7827488554886</v>
+        <v>138.7827488554896</v>
       </c>
       <c r="S14" t="n">
-        <v>93.71170804765264</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="T14" t="n">
-        <v>93.71170804765264</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="U14" t="n">
-        <v>48.64066723981662</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="V14" t="n">
-        <v>48.64066723981662</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="W14" t="n">
-        <v>48.64066723981662</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="X14" t="n">
-        <v>48.64066723981662</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.4102807911946</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="C15" t="n">
-        <v>133.4102807911946</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D15" t="n">
-        <v>133.4102807911946</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E15" t="n">
-        <v>88.33923998335855</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F15" t="n">
-        <v>43.26819917552254</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G15" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H15" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I15" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J15" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K15" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L15" t="n">
-        <v>20.19990161642755</v>
+        <v>46.5027753657927</v>
       </c>
       <c r="M15" t="n">
-        <v>64.37402871218762</v>
+        <v>90.67690246155307</v>
       </c>
       <c r="N15" t="n">
-        <v>108.5481558079477</v>
+        <v>134.8510295573134</v>
       </c>
       <c r="O15" t="n">
-        <v>152.7222829037078</v>
+        <v>152.722282903709</v>
       </c>
       <c r="P15" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q15" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R15" t="n">
-        <v>133.4102807911946</v>
+        <v>133.4102807911955</v>
       </c>
       <c r="S15" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="T15" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="U15" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="V15" t="n">
-        <v>133.4102807911946</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="W15" t="n">
-        <v>133.4102807911946</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="X15" t="n">
-        <v>133.4102807911946</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.4102807911946</v>
+        <v>48.64066723981695</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="C16" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D16" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E16" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F16" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G16" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H16" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I16" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J16" t="n">
-        <v>3.569626431980612</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K16" t="n">
-        <v>3.569626431980612</v>
+        <v>45.95894031175069</v>
       </c>
       <c r="L16" t="n">
-        <v>3.569626431980612</v>
+        <v>90.13306740751106</v>
       </c>
       <c r="M16" t="n">
-        <v>47.74375352774068</v>
+        <v>134.3071945032714</v>
       </c>
       <c r="N16" t="n">
-        <v>91.91788062350075</v>
+        <v>134.3071945032714</v>
       </c>
       <c r="O16" t="n">
-        <v>136.0920077192608</v>
+        <v>134.3071945032714</v>
       </c>
       <c r="P16" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.4813215990306</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R16" t="n">
-        <v>133.4102807911946</v>
+        <v>133.4102807911955</v>
       </c>
       <c r="S16" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="T16" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="U16" t="n">
-        <v>133.4102807911946</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="V16" t="n">
-        <v>133.4102807911946</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="W16" t="n">
-        <v>133.4102807911946</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="X16" t="n">
-        <v>133.4102807911946</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.4102807911946</v>
+        <v>43.26819917552285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.71170804765271</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C17" t="n">
-        <v>93.71170804765271</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D17" t="n">
-        <v>93.71170804765271</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E17" t="n">
-        <v>93.71170804765271</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F17" t="n">
-        <v>93.71170804765271</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G17" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H17" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I17" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J17" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K17" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L17" t="n">
-        <v>14.8078505018252</v>
+        <v>14.80785050182522</v>
       </c>
       <c r="M17" t="n">
-        <v>58.98197759758527</v>
+        <v>58.98197759758529</v>
       </c>
       <c r="N17" t="n">
-        <v>103.1561046933454</v>
+        <v>103.1561046933457</v>
       </c>
       <c r="O17" t="n">
-        <v>136.5648572975066</v>
+        <v>136.5648572975068</v>
       </c>
       <c r="P17" t="n">
-        <v>178.4813215990307</v>
+        <v>136.5648572975068</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R17" t="n">
-        <v>138.7827488554888</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="S17" t="n">
-        <v>138.7827488554888</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="T17" t="n">
-        <v>138.7827488554888</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="U17" t="n">
-        <v>138.7827488554888</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="V17" t="n">
-        <v>138.7827488554888</v>
+        <v>138.7827488554896</v>
       </c>
       <c r="W17" t="n">
-        <v>138.7827488554888</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="X17" t="n">
-        <v>138.7827488554888</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.71170804765271</v>
+        <v>48.64066723981695</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H18" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I18" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J18" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K18" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L18" t="n">
-        <v>46.50277536579268</v>
+        <v>46.5027753657927</v>
       </c>
       <c r="M18" t="n">
-        <v>90.67690246155279</v>
+        <v>64.37402871218822</v>
       </c>
       <c r="N18" t="n">
-        <v>134.8510295573129</v>
+        <v>108.5481558079486</v>
       </c>
       <c r="O18" t="n">
-        <v>152.7222829037079</v>
+        <v>152.722282903709</v>
       </c>
       <c r="P18" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q18" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7827488554888</v>
+        <v>133.4102807911955</v>
       </c>
       <c r="S18" t="n">
-        <v>93.71170804765271</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="T18" t="n">
-        <v>93.71170804765271</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="U18" t="n">
-        <v>93.71170804765271</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="V18" t="n">
-        <v>48.64066723981666</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="W18" t="n">
-        <v>48.64066723981666</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="X18" t="n">
-        <v>48.64066723981666</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.64066723981666</v>
+        <v>3.569626431980636</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K19" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L19" t="n">
-        <v>47.74375352774072</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="M19" t="n">
-        <v>90.13306740751054</v>
+        <v>47.74375352774101</v>
       </c>
       <c r="N19" t="n">
-        <v>134.3071945032706</v>
+        <v>91.91788062350138</v>
       </c>
       <c r="O19" t="n">
-        <v>178.4813215990307</v>
+        <v>136.0920077192617</v>
       </c>
       <c r="P19" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q19" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R19" t="n">
-        <v>133.4102807911947</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="S19" t="n">
-        <v>88.33923998335862</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="T19" t="n">
-        <v>88.33923998335862</v>
+        <v>133.4102807911955</v>
       </c>
       <c r="U19" t="n">
-        <v>88.33923998335862</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="V19" t="n">
-        <v>43.26819917552258</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="W19" t="n">
-        <v>3.569626431980615</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="X19" t="n">
-        <v>3.569626431980615</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.569626431980615</v>
+        <v>43.26819917552285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.64066723981666</v>
+        <v>138.7827488554896</v>
       </c>
       <c r="C20" t="n">
-        <v>3.569626431980615</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="D20" t="n">
-        <v>3.569626431980615</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="E20" t="n">
-        <v>3.569626431980615</v>
+        <v>93.71170804765326</v>
       </c>
       <c r="F20" t="n">
-        <v>3.569626431980615</v>
+        <v>48.64066723981695</v>
       </c>
       <c r="G20" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H20" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I20" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J20" t="n">
-        <v>3.569626431980615</v>
+        <v>45.48609073350558</v>
       </c>
       <c r="K20" t="n">
-        <v>3.569626431980615</v>
+        <v>45.48609073350558</v>
       </c>
       <c r="L20" t="n">
-        <v>14.8078505018252</v>
+        <v>56.72431480335017</v>
       </c>
       <c r="M20" t="n">
-        <v>58.98197759758527</v>
+        <v>100.8984418991102</v>
       </c>
       <c r="N20" t="n">
-        <v>103.1561046933454</v>
+        <v>145.0725689948706</v>
       </c>
       <c r="O20" t="n">
-        <v>136.5648572975066</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="P20" t="n">
-        <v>136.5648572975066</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="S20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="T20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="U20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="V20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="W20" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="X20" t="n">
-        <v>138.7827488554888</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.71170804765271</v>
+        <v>138.7827488554896</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="L21" t="n">
-        <v>46.50277536579268</v>
+        <v>46.5027753657927</v>
       </c>
       <c r="M21" t="n">
-        <v>64.37402871218774</v>
+        <v>64.37402871218822</v>
       </c>
       <c r="N21" t="n">
-        <v>108.5481558079478</v>
+        <v>108.5481558079486</v>
       </c>
       <c r="O21" t="n">
-        <v>152.7222829037079</v>
+        <v>152.722282903709</v>
       </c>
       <c r="P21" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q21" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="R21" t="n">
-        <v>138.7827488554888</v>
+        <v>133.4102807911955</v>
       </c>
       <c r="S21" t="n">
-        <v>138.7827488554888</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="T21" t="n">
-        <v>138.7827488554888</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="U21" t="n">
-        <v>93.71170804765271</v>
+        <v>88.33923998335916</v>
       </c>
       <c r="V21" t="n">
-        <v>48.64066723981666</v>
+        <v>43.26819917552285</v>
       </c>
       <c r="W21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="X21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.64888363167761</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="C22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="D22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="E22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="F22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="G22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="H22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="I22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="J22" t="n">
-        <v>3.569626431980615</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="K22" t="n">
-        <v>47.74375352774072</v>
+        <v>45.95894031175069</v>
       </c>
       <c r="L22" t="n">
-        <v>47.74375352774072</v>
+        <v>90.13306740751106</v>
       </c>
       <c r="M22" t="n">
-        <v>90.13306740751054</v>
+        <v>134.3071945032714</v>
       </c>
       <c r="N22" t="n">
-        <v>134.3071945032706</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="O22" t="n">
-        <v>134.3071945032706</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="P22" t="n">
-        <v>178.4813215990307</v>
+        <v>178.4813215990318</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.8620060551858</v>
+        <v>150.8620060551868</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8620060551858</v>
+        <v>105.7909652473505</v>
       </c>
       <c r="S22" t="n">
-        <v>105.7909652473497</v>
+        <v>60.71992443951419</v>
       </c>
       <c r="T22" t="n">
-        <v>105.7909652473497</v>
+        <v>15.64888363167788</v>
       </c>
       <c r="U22" t="n">
-        <v>105.7909652473497</v>
+        <v>15.64888363167788</v>
       </c>
       <c r="V22" t="n">
-        <v>105.7909652473497</v>
+        <v>15.64888363167788</v>
       </c>
       <c r="W22" t="n">
-        <v>105.7909652473497</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="X22" t="n">
-        <v>60.71992443951365</v>
+        <v>3.569626431980636</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.64888363167761</v>
+        <v>3.569626431980636</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.16854012448485</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="C23" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D23" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E23" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F23" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G23" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H23" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I23" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J23" t="n">
-        <v>5.149507392382506</v>
+        <v>66.66461690484013</v>
       </c>
       <c r="K23" t="n">
-        <v>5.149507392382506</v>
+        <v>66.66461690484013</v>
       </c>
       <c r="L23" t="n">
-        <v>16.38773146222709</v>
+        <v>130.3897708855737</v>
       </c>
       <c r="M23" t="n">
-        <v>60.56185855798716</v>
+        <v>174.5638979813337</v>
       </c>
       <c r="N23" t="n">
-        <v>110.0645775916176</v>
+        <v>224.0666170149642</v>
       </c>
       <c r="O23" t="n">
-        <v>143.4733301957788</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="P23" t="n">
-        <v>193.7502156383918</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="Q23" t="n">
         <v>257.4753696191253</v>
@@ -6025,16 +6025,16 @@
         <v>257.4753696191253</v>
       </c>
       <c r="V23" t="n">
-        <v>192.4563368870229</v>
+        <v>200.2066055886896</v>
       </c>
       <c r="W23" t="n">
-        <v>192.4563368870229</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="X23" t="n">
-        <v>135.1875728565872</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="Y23" t="n">
-        <v>135.1875728565872</v>
+        <v>70.16854012448486</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>135.1875728565872</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="C24" t="n">
-        <v>70.16854012448485</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="D24" t="n">
-        <v>5.149507392382506</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="E24" t="n">
-        <v>5.149507392382506</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="F24" t="n">
-        <v>5.149507392382506</v>
+        <v>13.79473443438448</v>
       </c>
       <c r="G24" t="n">
-        <v>5.149507392382506</v>
+        <v>13.79473443438448</v>
       </c>
       <c r="H24" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I24" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J24" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K24" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L24" t="n">
         <v>48.08265632619457</v>
@@ -6083,7 +6083,7 @@
         <v>175.5329642876617</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7163309238024</v>
+        <v>231.7163309238025</v>
       </c>
       <c r="P24" t="n">
         <v>257.4753696191253</v>
@@ -6098,22 +6098,22 @@
         <v>208.8518326306915</v>
       </c>
       <c r="T24" t="n">
-        <v>208.8518326306915</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="U24" t="n">
-        <v>200.2066055886895</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="V24" t="n">
-        <v>200.2066055886895</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="W24" t="n">
-        <v>200.2066055886895</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="X24" t="n">
-        <v>135.1875728565872</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.1875728565872</v>
+        <v>78.81376716648684</v>
       </c>
     </row>
     <row r="25">
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127.4373041549206</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="C25" t="n">
-        <v>70.16854012448485</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="D25" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="E25" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="F25" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G25" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H25" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I25" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J25" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K25" t="n">
-        <v>5.149507392382506</v>
+        <v>63.89619116508533</v>
       </c>
       <c r="L25" t="n">
-        <v>66.29990767692479</v>
+        <v>127.6213451458189</v>
       </c>
       <c r="M25" t="n">
-        <v>130.0250616576583</v>
+        <v>191.3464991265524</v>
       </c>
       <c r="N25" t="n">
-        <v>193.7502156383918</v>
+        <v>255.0716531072859</v>
       </c>
       <c r="O25" t="n">
         <v>257.4753696191253</v>
@@ -6168,31 +6168,31 @@
         <v>257.4753696191253</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="R25" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="S25" t="n">
-        <v>257.4753696191253</v>
+        <v>164.837021343178</v>
       </c>
       <c r="T25" t="n">
-        <v>257.4753696191253</v>
+        <v>164.837021343178</v>
       </c>
       <c r="U25" t="n">
-        <v>257.4753696191253</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="V25" t="n">
-        <v>257.4753696191253</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="W25" t="n">
-        <v>257.4753696191253</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="X25" t="n">
-        <v>257.4753696191253</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.4563368870229</v>
+        <v>70.16854012448486</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.41487026257434</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="C26" t="n">
-        <v>75.41487026257434</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="D26" t="n">
-        <v>70.16854012448485</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="E26" t="n">
-        <v>5.149507392382506</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="F26" t="n">
-        <v>5.149507392382506</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="G26" t="n">
-        <v>5.149507392382506</v>
+        <v>10.39583753047199</v>
       </c>
       <c r="H26" t="n">
-        <v>5.149507392382506</v>
+        <v>10.39583753047199</v>
       </c>
       <c r="I26" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J26" t="n">
-        <v>5.149507392382506</v>
+        <v>55.42639283499555</v>
       </c>
       <c r="K26" t="n">
-        <v>5.149507392382506</v>
+        <v>55.42639283499555</v>
       </c>
       <c r="L26" t="n">
-        <v>68.87466137311601</v>
+        <v>66.66461690484013</v>
       </c>
       <c r="M26" t="n">
-        <v>130.0250616576583</v>
+        <v>110.8387440006002</v>
       </c>
       <c r="N26" t="n">
+        <v>160.3414630342306</v>
+      </c>
+      <c r="O26" t="n">
         <v>193.7502156383918</v>
-      </c>
-      <c r="O26" t="n">
-        <v>257.4753696191253</v>
       </c>
       <c r="P26" t="n">
         <v>257.4753696191253</v>
@@ -6250,28 +6250,28 @@
         <v>257.4753696191253</v>
       </c>
       <c r="R26" t="n">
-        <v>205.452935726779</v>
+        <v>205.4529357267791</v>
       </c>
       <c r="S26" t="n">
-        <v>205.452935726779</v>
+        <v>205.4529357267791</v>
       </c>
       <c r="T26" t="n">
-        <v>205.452935726779</v>
+        <v>140.4339029946767</v>
       </c>
       <c r="U26" t="n">
-        <v>205.452935726779</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="V26" t="n">
-        <v>140.4339029946767</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="W26" t="n">
-        <v>75.41487026257434</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="X26" t="n">
-        <v>75.41487026257434</v>
+        <v>75.41487026257435</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.41487026257434</v>
+        <v>75.41487026257435</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.4753696191253</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="C27" t="n">
-        <v>257.4753696191253</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D27" t="n">
-        <v>257.4753696191253</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E27" t="n">
-        <v>196.34860064307</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F27" t="n">
-        <v>196.34860064307</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G27" t="n">
-        <v>131.3295679109677</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H27" t="n">
-        <v>66.31053517886535</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I27" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J27" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K27" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L27" t="n">
         <v>48.08265632619457</v>
       </c>
       <c r="M27" t="n">
-        <v>111.8078103069281</v>
+        <v>111.8078103069282</v>
       </c>
       <c r="N27" t="n">
-        <v>175.5329642876616</v>
+        <v>175.5329642876617</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7163309238024</v>
+        <v>231.7163309238025</v>
       </c>
       <c r="P27" t="n">
         <v>257.4753696191253</v>
@@ -6329,28 +6329,28 @@
         <v>257.4753696191253</v>
       </c>
       <c r="R27" t="n">
-        <v>257.4753696191253</v>
+        <v>208.8518326306915</v>
       </c>
       <c r="S27" t="n">
-        <v>257.4753696191253</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="T27" t="n">
-        <v>257.4753696191253</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="U27" t="n">
-        <v>257.4753696191253</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="V27" t="n">
-        <v>257.4753696191253</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="W27" t="n">
-        <v>257.4753696191253</v>
+        <v>13.79473443438448</v>
       </c>
       <c r="X27" t="n">
-        <v>257.4753696191253</v>
+        <v>13.79473443438448</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.4753696191253</v>
+        <v>13.79473443438448</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="C28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K28" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L28" t="n">
-        <v>68.87466137311601</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="M28" t="n">
-        <v>130.0250616576583</v>
+        <v>132.5998153538496</v>
       </c>
       <c r="N28" t="n">
         <v>193.7502156383918</v>
@@ -6405,31 +6405,31 @@
         <v>257.4753696191253</v>
       </c>
       <c r="Q28" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="R28" t="n">
-        <v>257.4753696191253</v>
+        <v>164.837021343178</v>
       </c>
       <c r="S28" t="n">
-        <v>257.4753696191253</v>
+        <v>164.837021343178</v>
       </c>
       <c r="T28" t="n">
-        <v>192.4563368870229</v>
+        <v>164.837021343178</v>
       </c>
       <c r="U28" t="n">
-        <v>127.4373041549206</v>
+        <v>164.837021343178</v>
       </c>
       <c r="V28" t="n">
-        <v>62.41827142281824</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="W28" t="n">
-        <v>5.149507392382506</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="X28" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.149507392382506</v>
+        <v>127.4373041549206</v>
       </c>
       <c r="C29" t="n">
-        <v>5.149507392382506</v>
+        <v>127.4373041549206</v>
       </c>
       <c r="D29" t="n">
-        <v>5.149507392382506</v>
+        <v>127.4373041549206</v>
       </c>
       <c r="E29" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="F29" t="n">
-        <v>5.149507392382506</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="G29" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H29" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I29" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J29" t="n">
-        <v>68.87466137311601</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K29" t="n">
-        <v>68.87466137311601</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L29" t="n">
-        <v>80.1128854429606</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="M29" t="n">
-        <v>124.2870125387207</v>
+        <v>132.5998153538496</v>
       </c>
       <c r="N29" t="n">
-        <v>173.7897315723511</v>
+        <v>196.3249693345831</v>
       </c>
       <c r="O29" t="n">
-        <v>207.1984841765123</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="P29" t="n">
         <v>257.4753696191253</v>
@@ -6490,25 +6490,25 @@
         <v>257.4753696191253</v>
       </c>
       <c r="S29" t="n">
-        <v>192.4563368870229</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="T29" t="n">
+        <v>257.4753696191253</v>
+      </c>
+      <c r="U29" t="n">
+        <v>257.4753696191253</v>
+      </c>
+      <c r="V29" t="n">
+        <v>192.456336887023</v>
+      </c>
+      <c r="W29" t="n">
         <v>127.4373041549206</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>127.4373041549206</v>
       </c>
-      <c r="V29" t="n">
-        <v>70.16854012448485</v>
-      </c>
-      <c r="W29" t="n">
-        <v>70.16854012448485</v>
-      </c>
-      <c r="X29" t="n">
-        <v>70.16854012448485</v>
-      </c>
       <c r="Y29" t="n">
-        <v>70.16854012448485</v>
+        <v>127.4373041549206</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.41827142281824</v>
+        <v>13.79473443438448</v>
       </c>
       <c r="C30" t="n">
-        <v>62.41827142281824</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K30" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L30" t="n">
-        <v>48.08265632619461</v>
+        <v>48.08265632619457</v>
       </c>
       <c r="M30" t="n">
         <v>111.8078103069281</v>
@@ -6566,28 +6566,28 @@
         <v>257.4753696191253</v>
       </c>
       <c r="R30" t="n">
-        <v>257.4753696191253</v>
+        <v>208.8518326306915</v>
       </c>
       <c r="S30" t="n">
-        <v>192.4563368870229</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="T30" t="n">
-        <v>192.4563368870229</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="U30" t="n">
-        <v>192.4563368870229</v>
+        <v>143.8327998985892</v>
       </c>
       <c r="V30" t="n">
-        <v>127.4373041549206</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="W30" t="n">
-        <v>62.41827142281824</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="X30" t="n">
-        <v>62.41827142281824</v>
+        <v>78.81376716648684</v>
       </c>
       <c r="Y30" t="n">
-        <v>62.41827142281824</v>
+        <v>78.81376716648684</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="C31" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D31" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K31" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L31" t="n">
-        <v>5.149507392382506</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="M31" t="n">
-        <v>66.29990767692479</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="N31" t="n">
-        <v>130.0250616576583</v>
+        <v>132.5998153538496</v>
       </c>
       <c r="O31" t="n">
         <v>193.7502156383918</v>
@@ -6642,31 +6642,31 @@
         <v>257.4753696191253</v>
       </c>
       <c r="Q31" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="R31" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="S31" t="n">
-        <v>257.4753696191253</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="T31" t="n">
-        <v>257.4753696191253</v>
+        <v>200.2066055886896</v>
       </c>
       <c r="U31" t="n">
-        <v>257.4753696191253</v>
+        <v>200.2066055886896</v>
       </c>
       <c r="V31" t="n">
-        <v>257.4753696191253</v>
+        <v>200.2066055886896</v>
       </c>
       <c r="W31" t="n">
-        <v>200.2066055886895</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="X31" t="n">
-        <v>200.2066055886895</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.16854012448485</v>
+        <v>135.1875728565872</v>
       </c>
       <c r="C32" t="n">
-        <v>70.16854012448485</v>
+        <v>70.16854012448486</v>
       </c>
       <c r="D32" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E32" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F32" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G32" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H32" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I32" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J32" t="n">
-        <v>68.87466137311601</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K32" t="n">
-        <v>68.87466137311601</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L32" t="n">
-        <v>80.1128854429606</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="M32" t="n">
-        <v>143.8380394236941</v>
+        <v>132.5998153538496</v>
       </c>
       <c r="N32" t="n">
         <v>193.7502156383918</v>
@@ -6730,22 +6730,22 @@
         <v>257.4753696191253</v>
       </c>
       <c r="T32" t="n">
-        <v>192.4563368870229</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="U32" t="n">
-        <v>127.4373041549206</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="V32" t="n">
-        <v>70.16854012448485</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="W32" t="n">
-        <v>70.16854012448485</v>
+        <v>192.456336887023</v>
       </c>
       <c r="X32" t="n">
-        <v>70.16854012448485</v>
+        <v>192.456336887023</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.16854012448485</v>
+        <v>192.456336887023</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="C33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="D33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="E33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="F33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="G33" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H33" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I33" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J33" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K33" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L33" t="n">
-        <v>48.08265632619457</v>
+        <v>48.08265632619461</v>
       </c>
       <c r="M33" t="n">
-        <v>111.8078103069281</v>
+        <v>111.8078103069282</v>
       </c>
       <c r="N33" t="n">
-        <v>175.5329642876616</v>
+        <v>175.5329642876617</v>
       </c>
       <c r="O33" t="n">
-        <v>231.7163309238023</v>
+        <v>231.7163309238025</v>
       </c>
       <c r="P33" t="n">
-        <v>257.4753696191252</v>
+        <v>257.4753696191253</v>
       </c>
       <c r="Q33" t="n">
         <v>257.4753696191253</v>
@@ -6806,25 +6806,25 @@
         <v>257.4753696191253</v>
       </c>
       <c r="S33" t="n">
-        <v>257.4753696191253</v>
+        <v>192.456336887023</v>
       </c>
       <c r="T33" t="n">
-        <v>200.2066055886895</v>
+        <v>192.456336887023</v>
       </c>
       <c r="U33" t="n">
-        <v>135.1875728565872</v>
+        <v>192.456336887023</v>
       </c>
       <c r="V33" t="n">
-        <v>135.1875728565872</v>
+        <v>127.4373041549206</v>
       </c>
       <c r="W33" t="n">
-        <v>135.1875728565872</v>
+        <v>127.4373041549206</v>
       </c>
       <c r="X33" t="n">
-        <v>70.16854012448485</v>
+        <v>62.41827142281826</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.149507392382506</v>
+        <v>62.41827142281826</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="C34" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="D34" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="E34" t="n">
-        <v>70.16854012448485</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="F34" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="G34" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="H34" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="I34" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="J34" t="n">
-        <v>5.149507392382506</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="K34" t="n">
-        <v>63.89619116508532</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="L34" t="n">
-        <v>63.89619116508532</v>
+        <v>68.87466137311603</v>
       </c>
       <c r="M34" t="n">
-        <v>66.29990767692479</v>
+        <v>132.5998153538496</v>
       </c>
       <c r="N34" t="n">
-        <v>130.0250616576583</v>
+        <v>196.3249693345831</v>
       </c>
       <c r="O34" t="n">
-        <v>193.7502156383918</v>
+        <v>196.3249693345831</v>
       </c>
       <c r="P34" t="n">
         <v>257.4753696191253</v>
       </c>
       <c r="Q34" t="n">
-        <v>229.8560540752803</v>
+        <v>229.8560540752804</v>
       </c>
       <c r="R34" t="n">
-        <v>229.8560540752803</v>
+        <v>164.837021343178</v>
       </c>
       <c r="S34" t="n">
-        <v>164.837021343178</v>
+        <v>99.81798861107562</v>
       </c>
       <c r="T34" t="n">
-        <v>164.837021343178</v>
+        <v>99.81798861107562</v>
       </c>
       <c r="U34" t="n">
-        <v>135.1875728565872</v>
+        <v>34.79895587897326</v>
       </c>
       <c r="V34" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="W34" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="X34" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.1875728565872</v>
+        <v>5.149507392382507</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>133.4102807911946</v>
+      </c>
+      <c r="C35" t="n">
+        <v>133.4102807911946</v>
+      </c>
+      <c r="D35" t="n">
         <v>93.71170804765264</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
+        <v>93.71170804765264</v>
+      </c>
+      <c r="F35" t="n">
         <v>48.64066723981662</v>
-      </c>
-      <c r="D35" t="n">
-        <v>48.64066723981662</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.569626431980612</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3.569626431980612</v>
       </c>
       <c r="G35" t="n">
         <v>3.569626431980612</v>
@@ -6943,46 +6943,46 @@
         <v>3.569626431980612</v>
       </c>
       <c r="L35" t="n">
-        <v>14.8078505018252</v>
+        <v>47.74375352774068</v>
       </c>
       <c r="M35" t="n">
-        <v>58.98197759758527</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="N35" t="n">
-        <v>103.1561046933453</v>
+        <v>136.0920077192608</v>
       </c>
       <c r="O35" t="n">
-        <v>136.5648572975065</v>
+        <v>178.4813215990306</v>
       </c>
       <c r="P35" t="n">
-        <v>136.5648572975065</v>
+        <v>178.4813215990306</v>
       </c>
       <c r="Q35" t="n">
         <v>178.4813215990306</v>
       </c>
       <c r="R35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="S35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="T35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="U35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="V35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="W35" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="X35" t="n">
-        <v>93.71170804765264</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.71170804765264</v>
+        <v>133.4102807911946</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="C36" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="D36" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="E36" t="n">
         <v>3.569626431980612</v>
@@ -7052,16 +7052,16 @@
         <v>138.7827488554886</v>
       </c>
       <c r="V36" t="n">
-        <v>138.7827488554886</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="W36" t="n">
-        <v>93.71170804765264</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="X36" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="Y36" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.4813215990306</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="C37" t="n">
-        <v>138.7827488554886</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="D37" t="n">
-        <v>93.71170804765264</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="E37" t="n">
-        <v>93.71170804765264</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="F37" t="n">
-        <v>48.64066723981662</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="G37" t="n">
-        <v>3.569626431980612</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="H37" t="n">
         <v>3.569626431980612</v>
@@ -7098,7 +7098,7 @@
         <v>3.569626431980612</v>
       </c>
       <c r="K37" t="n">
-        <v>47.74375352774068</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="L37" t="n">
         <v>47.74375352774068</v>
@@ -7107,40 +7107,40 @@
         <v>91.91788062350075</v>
       </c>
       <c r="N37" t="n">
-        <v>91.91788062350075</v>
+        <v>136.0920077192608</v>
       </c>
       <c r="O37" t="n">
-        <v>134.3071945032705</v>
+        <v>178.4813215990306</v>
       </c>
       <c r="P37" t="n">
         <v>178.4813215990306</v>
       </c>
       <c r="Q37" t="n">
-        <v>178.4813215990306</v>
+        <v>150.8620060551856</v>
       </c>
       <c r="R37" t="n">
-        <v>178.4813215990306</v>
+        <v>105.7909652473496</v>
       </c>
       <c r="S37" t="n">
-        <v>178.4813215990306</v>
+        <v>105.7909652473496</v>
       </c>
       <c r="T37" t="n">
-        <v>178.4813215990306</v>
+        <v>60.71992443951359</v>
       </c>
       <c r="U37" t="n">
-        <v>178.4813215990306</v>
+        <v>60.71992443951359</v>
       </c>
       <c r="V37" t="n">
-        <v>178.4813215990306</v>
+        <v>60.71992443951359</v>
       </c>
       <c r="W37" t="n">
-        <v>178.4813215990306</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="X37" t="n">
-        <v>178.4813215990306</v>
+        <v>15.64888363167758</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.4813215990306</v>
+        <v>15.64888363167758</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="C38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="D38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="E38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="F38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="G38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="H38" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="I38" t="n">
         <v>3.569626431980612</v>
       </c>
       <c r="J38" t="n">
-        <v>45.48609073350469</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="K38" t="n">
-        <v>45.48609073350469</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="L38" t="n">
-        <v>56.72431480334927</v>
+        <v>47.74375352774068</v>
       </c>
       <c r="M38" t="n">
-        <v>100.8984418991093</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="N38" t="n">
-        <v>145.0725689948694</v>
+        <v>136.0920077192608</v>
       </c>
       <c r="O38" t="n">
         <v>178.4813215990306</v>
@@ -7198,28 +7198,28 @@
         <v>178.4813215990306</v>
       </c>
       <c r="R38" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="S38" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="T38" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="U38" t="n">
-        <v>138.7827488554886</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="V38" t="n">
-        <v>138.7827488554886</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="W38" t="n">
-        <v>138.7827488554886</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="X38" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="C39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="D39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="E39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="F39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="G39" t="n">
-        <v>43.26819917552254</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="H39" t="n">
-        <v>43.26819917552254</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="I39" t="n">
         <v>3.569626431980612</v>
@@ -7259,16 +7259,16 @@
         <v>3.569626431980612</v>
       </c>
       <c r="L39" t="n">
-        <v>46.50277536579267</v>
+        <v>20.19990161642755</v>
       </c>
       <c r="M39" t="n">
-        <v>90.67690246155274</v>
+        <v>64.37402871218762</v>
       </c>
       <c r="N39" t="n">
-        <v>134.8510295573128</v>
+        <v>108.5481558079477</v>
       </c>
       <c r="O39" t="n">
-        <v>178.4813215990306</v>
+        <v>152.7222829037078</v>
       </c>
       <c r="P39" t="n">
         <v>178.4813215990306</v>
@@ -7277,28 +7277,28 @@
         <v>178.4813215990306</v>
       </c>
       <c r="R39" t="n">
+        <v>178.4813215990306</v>
+      </c>
+      <c r="S39" t="n">
+        <v>178.4813215990306</v>
+      </c>
+      <c r="T39" t="n">
+        <v>178.4813215990306</v>
+      </c>
+      <c r="U39" t="n">
+        <v>178.4813215990306</v>
+      </c>
+      <c r="V39" t="n">
+        <v>178.4813215990306</v>
+      </c>
+      <c r="W39" t="n">
         <v>133.4102807911946</v>
       </c>
-      <c r="S39" t="n">
+      <c r="X39" t="n">
         <v>133.4102807911946</v>
       </c>
-      <c r="T39" t="n">
-        <v>88.33923998335855</v>
-      </c>
-      <c r="U39" t="n">
-        <v>88.33923998335855</v>
-      </c>
-      <c r="V39" t="n">
-        <v>88.33923998335855</v>
-      </c>
-      <c r="W39" t="n">
-        <v>88.33923998335855</v>
-      </c>
-      <c r="X39" t="n">
-        <v>88.33923998335855</v>
-      </c>
       <c r="Y39" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
     </row>
     <row r="40">
@@ -7314,13 +7314,13 @@
         <v>133.4102807911946</v>
       </c>
       <c r="D40" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="E40" t="n">
-        <v>43.26819917552254</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="F40" t="n">
-        <v>43.26819917552254</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="G40" t="n">
         <v>3.569626431980612</v>
@@ -7338,16 +7338,16 @@
         <v>3.569626431980612</v>
       </c>
       <c r="L40" t="n">
-        <v>3.569626431980612</v>
+        <v>47.74375352774068</v>
       </c>
       <c r="M40" t="n">
-        <v>45.95894031175038</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="N40" t="n">
-        <v>90.13306740751045</v>
+        <v>136.0920077192608</v>
       </c>
       <c r="O40" t="n">
-        <v>134.3071945032705</v>
+        <v>178.4813215990306</v>
       </c>
       <c r="P40" t="n">
         <v>178.4813215990306</v>
@@ -7362,16 +7362,16 @@
         <v>178.4813215990306</v>
       </c>
       <c r="T40" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="U40" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="V40" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="W40" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="X40" t="n">
         <v>133.4102807911946</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.26819917552254</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="C41" t="n">
-        <v>43.26819917552254</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="D41" t="n">
-        <v>43.26819917552254</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="E41" t="n">
-        <v>43.26819917552254</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="F41" t="n">
-        <v>43.26819917552254</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="G41" t="n">
         <v>3.569626431980612</v>
@@ -7441,7 +7441,7 @@
         <v>178.4813215990306</v>
       </c>
       <c r="T41" t="n">
-        <v>133.4102807911946</v>
+        <v>178.4813215990306</v>
       </c>
       <c r="U41" t="n">
         <v>133.4102807911946</v>
@@ -7469,16 +7469,16 @@
         <v>88.33923998335855</v>
       </c>
       <c r="C42" t="n">
+        <v>88.33923998335855</v>
+      </c>
+      <c r="D42" t="n">
+        <v>88.33923998335855</v>
+      </c>
+      <c r="E42" t="n">
+        <v>88.33923998335855</v>
+      </c>
+      <c r="F42" t="n">
         <v>43.26819917552254</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.569626431980612</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3.569626431980612</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.569626431980612</v>
       </c>
       <c r="G42" t="n">
         <v>3.569626431980612</v>
@@ -7520,13 +7520,13 @@
         <v>178.4813215990306</v>
       </c>
       <c r="T42" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="U42" t="n">
         <v>133.4102807911946</v>
       </c>
       <c r="V42" t="n">
-        <v>88.33923998335855</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="W42" t="n">
         <v>88.33923998335855</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="C43" t="n">
-        <v>178.4813215990306</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="D43" t="n">
-        <v>178.4813215990306</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="E43" t="n">
-        <v>133.4102807911946</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="F43" t="n">
-        <v>88.33923998335855</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="G43" t="n">
-        <v>43.26819917552254</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="H43" t="n">
-        <v>43.26819917552254</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="I43" t="n">
         <v>3.569626431980612</v>
@@ -7572,19 +7572,19 @@
         <v>3.569626431980612</v>
       </c>
       <c r="K43" t="n">
-        <v>3.569626431980612</v>
+        <v>47.74375352774068</v>
       </c>
       <c r="L43" t="n">
-        <v>45.95894031175038</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="M43" t="n">
-        <v>90.13306740751045</v>
+        <v>91.91788062350075</v>
       </c>
       <c r="N43" t="n">
         <v>134.3071945032705</v>
       </c>
       <c r="O43" t="n">
-        <v>178.4813215990306</v>
+        <v>134.3071945032705</v>
       </c>
       <c r="P43" t="n">
         <v>178.4813215990306</v>
@@ -7602,19 +7602,19 @@
         <v>178.4813215990306</v>
       </c>
       <c r="U43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="V43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="W43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="X43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="C44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="D44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="E44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="F44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="G44" t="n">
-        <v>48.64066723981662</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="H44" t="n">
-        <v>3.569626431980612</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="I44" t="n">
         <v>3.569626431980612</v>
@@ -7651,19 +7651,19 @@
         <v>3.569626431980612</v>
       </c>
       <c r="K44" t="n">
-        <v>45.48609073350469</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="L44" t="n">
-        <v>56.72431480334927</v>
+        <v>14.8078505018252</v>
       </c>
       <c r="M44" t="n">
-        <v>100.8984418991093</v>
+        <v>58.98197759758527</v>
       </c>
       <c r="N44" t="n">
-        <v>145.0725689948694</v>
+        <v>103.1561046933453</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4813215990306</v>
+        <v>136.5648572975065</v>
       </c>
       <c r="P44" t="n">
         <v>178.4813215990306</v>
@@ -7681,19 +7681,19 @@
         <v>178.4813215990306</v>
       </c>
       <c r="U44" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="V44" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="W44" t="n">
-        <v>138.7827488554886</v>
+        <v>88.33923998335855</v>
       </c>
       <c r="X44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.71170804765264</v>
+        <v>43.26819917552254</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="C45" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="D45" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="E45" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="F45" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="G45" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="H45" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="I45" t="n">
         <v>3.569626431980612</v>
@@ -7736,10 +7736,10 @@
         <v>46.50277536579267</v>
       </c>
       <c r="M45" t="n">
-        <v>64.37402871218762</v>
+        <v>90.67690246155274</v>
       </c>
       <c r="N45" t="n">
-        <v>108.5481558079477</v>
+        <v>134.8510295573128</v>
       </c>
       <c r="O45" t="n">
         <v>152.7222829037078</v>
@@ -7751,28 +7751,28 @@
         <v>178.4813215990306</v>
       </c>
       <c r="R45" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="S45" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="T45" t="n">
-        <v>178.4813215990306</v>
+        <v>133.4102807911946</v>
       </c>
       <c r="U45" t="n">
-        <v>138.7827488554886</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="V45" t="n">
-        <v>138.7827488554886</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="W45" t="n">
-        <v>138.7827488554886</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="X45" t="n">
-        <v>138.7827488554886</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="C46" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="D46" t="n">
-        <v>93.71170804765264</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="E46" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="F46" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="G46" t="n">
-        <v>48.64066723981662</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="H46" t="n">
         <v>3.569626431980612</v>
@@ -7812,16 +7812,16 @@
         <v>47.74375352774068</v>
       </c>
       <c r="L46" t="n">
+        <v>47.74375352774068</v>
+      </c>
+      <c r="M46" t="n">
+        <v>47.74375352774068</v>
+      </c>
+      <c r="N46" t="n">
         <v>90.13306740751045</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>134.3071945032705</v>
-      </c>
-      <c r="N46" t="n">
-        <v>178.4813215990306</v>
-      </c>
-      <c r="O46" t="n">
-        <v>178.4813215990306</v>
       </c>
       <c r="P46" t="n">
         <v>178.4813215990306</v>
@@ -7839,19 +7839,19 @@
         <v>178.4813215990306</v>
       </c>
       <c r="U46" t="n">
-        <v>178.4813215990306</v>
+        <v>138.7827488554886</v>
       </c>
       <c r="V46" t="n">
-        <v>178.4813215990306</v>
+        <v>93.71170804765264</v>
       </c>
       <c r="W46" t="n">
-        <v>178.4813215990306</v>
+        <v>48.64066723981662</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4813215990306</v>
+        <v>3.569626431980612</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.7827488554886</v>
+        <v>3.569626431980612</v>
       </c>
     </row>
   </sheetData>
@@ -8692,10 +8692,10 @@
         <v>48.1381236455793</v>
       </c>
       <c r="K11" t="n">
-        <v>63.23540322301705</v>
+        <v>20.89554029218465</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>33.26858891506615</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.071274015766235</v>
       </c>
       <c r="P11" t="n">
         <v>6.047882272840837</v>
@@ -8856,16 +8856,16 @@
         <v>75.07284602545258</v>
       </c>
       <c r="M13" t="n">
-        <v>73.43704340548099</v>
+        <v>71.63420177316756</v>
       </c>
       <c r="N13" t="n">
-        <v>63.01210989191904</v>
+        <v>20.19462112447484</v>
       </c>
       <c r="O13" t="n">
         <v>39.17127283655671</v>
       </c>
       <c r="P13" t="n">
-        <v>52.77230725562016</v>
+        <v>97.39263765537781</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8932,7 +8932,7 @@
         <v>20.89554029218465</v>
       </c>
       <c r="L14" t="n">
-        <v>33.26858891506615</v>
+        <v>31.465747282753</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>10.87411564807996</v>
       </c>
       <c r="P14" t="n">
-        <v>15.11915628860708</v>
+        <v>6.047882272840837</v>
       </c>
       <c r="Q14" t="n">
         <v>53.20104771330261</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>47.40368172576079</v>
+        <v>90.22117049320529</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45251562569493</v>
+        <v>75.07284602545289</v>
       </c>
       <c r="M16" t="n">
-        <v>73.43704340548099</v>
+        <v>73.4370434054813</v>
       </c>
       <c r="N16" t="n">
-        <v>64.81495152423248</v>
+        <v>20.19462112447484</v>
       </c>
       <c r="O16" t="n">
-        <v>83.79160323631436</v>
+        <v>39.17127283655671</v>
       </c>
       <c r="P16" t="n">
-        <v>95.58979602306437</v>
+        <v>97.39263765537812</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>48.38774520367333</v>
+        <v>6.047882272840837</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.20104771330261</v>
+        <v>95.54091064413589</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9327,19 +9327,19 @@
         <v>47.40368172576079</v>
       </c>
       <c r="L19" t="n">
-        <v>75.07284602545261</v>
+        <v>30.45251562569493</v>
       </c>
       <c r="M19" t="n">
-        <v>71.6342017731676</v>
+        <v>73.43704340548129</v>
       </c>
       <c r="N19" t="n">
-        <v>64.81495152423251</v>
+        <v>64.81495152423278</v>
       </c>
       <c r="O19" t="n">
-        <v>83.79160323631439</v>
+        <v>83.79160323631466</v>
       </c>
       <c r="P19" t="n">
-        <v>52.77230725562016</v>
+        <v>95.58979602306465</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>48.1381236455793</v>
+        <v>90.47798657641258</v>
       </c>
       <c r="K20" t="n">
         <v>20.89554029218465</v>
@@ -9421,7 +9421,7 @@
         <v>6.047882272840837</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.54091064413511</v>
+        <v>53.20104771330261</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>92.02401212551848</v>
+        <v>90.22117049320529</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45251562569493</v>
+        <v>75.07284602545289</v>
       </c>
       <c r="M22" t="n">
-        <v>71.6342017731676</v>
+        <v>73.4370434054813</v>
       </c>
       <c r="N22" t="n">
-        <v>64.81495152423251</v>
+        <v>64.8149515242328</v>
       </c>
       <c r="O22" t="n">
         <v>39.17127283655671</v>
       </c>
       <c r="P22" t="n">
-        <v>97.39263765537784</v>
+        <v>52.77230725562016</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>48.1381236455793</v>
+        <v>110.274597900587</v>
       </c>
       <c r="K23" t="n">
         <v>20.89554029218465</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>53.01710092008983</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>56.83261504315701</v>
+        <v>6.047882272840837</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.5698901180839</v>
+        <v>53.20104771330261</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9798,10 +9798,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>47.40368172576079</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>92.22059672119218</v>
+        <v>94.82135803047626</v>
       </c>
       <c r="M25" t="n">
         <v>93.18555541050468</v>
@@ -9810,7 +9810,7 @@
         <v>84.56346352925617</v>
       </c>
       <c r="O25" t="n">
-        <v>103.540115241338</v>
+        <v>41.5992693131622</v>
       </c>
       <c r="P25" t="n">
         <v>52.77230725562016</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>48.1381236455793</v>
+        <v>98.9228564158955</v>
       </c>
       <c r="K26" t="n">
         <v>20.89554029218465</v>
       </c>
       <c r="L26" t="n">
-        <v>53.01710092008982</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>17.1477506957396</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>14.36609590616473</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.62262765310334</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>6.047882272840837</v>
+        <v>70.41672467762217</v>
       </c>
       <c r="Q26" t="n">
         <v>53.20104771330261</v>
@@ -10038,13 +10038,13 @@
         <v>47.40368172576079</v>
       </c>
       <c r="L28" t="n">
-        <v>94.82135803047625</v>
+        <v>94.82135803047626</v>
       </c>
       <c r="M28" t="n">
-        <v>90.58479410122058</v>
+        <v>93.18555541050468</v>
       </c>
       <c r="N28" t="n">
-        <v>84.56346352925617</v>
+        <v>81.96270221997207</v>
       </c>
       <c r="O28" t="n">
         <v>103.540115241338</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>112.5069660503606</v>
+        <v>48.1381236455793</v>
       </c>
       <c r="K29" t="n">
         <v>20.89554029218465</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>53.01710092008983</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>19.74851200502368</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>14.36609590616473</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>28.02186634381926</v>
       </c>
       <c r="P29" t="n">
-        <v>56.83261504315698</v>
+        <v>6.047882272840837</v>
       </c>
       <c r="Q29" t="n">
         <v>53.20104771330261</v>
@@ -10275,16 +10275,16 @@
         <v>47.40368172576079</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45251562569493</v>
+        <v>94.82135803047626</v>
       </c>
       <c r="M31" t="n">
-        <v>90.58479410122061</v>
+        <v>28.81671300572334</v>
       </c>
       <c r="N31" t="n">
         <v>84.56346352925617</v>
       </c>
       <c r="O31" t="n">
-        <v>103.540115241338</v>
+        <v>100.9393539320539</v>
       </c>
       <c r="P31" t="n">
         <v>117.1411496604015</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>112.5069660503606</v>
+        <v>48.1381236455793</v>
       </c>
       <c r="K32" t="n">
         <v>20.89554029218465</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>53.01710092008983</v>
       </c>
       <c r="M32" t="n">
-        <v>19.74851200502367</v>
+        <v>19.74851200502368</v>
       </c>
       <c r="N32" t="n">
-        <v>0.413593112189119</v>
+        <v>11.76533459688063</v>
       </c>
       <c r="O32" t="n">
         <v>30.62262765310334</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>47.40368172576079</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45251562569493</v>
+        <v>94.82135803047626</v>
       </c>
       <c r="M34" t="n">
-        <v>31.24470948232887</v>
+        <v>93.18555541050468</v>
       </c>
       <c r="N34" t="n">
         <v>84.56346352925617</v>
       </c>
       <c r="O34" t="n">
-        <v>103.540115241338</v>
+        <v>39.17127283655671</v>
       </c>
       <c r="P34" t="n">
-        <v>117.1411496604015</v>
+        <v>114.5403883511174</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10591,7 +10591,7 @@
         <v>20.89554029218465</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>33.26858891506615</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.071274015766235</v>
       </c>
       <c r="P35" t="n">
         <v>6.047882272840837</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.540910644135</v>
+        <v>53.20104771330261</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>92.02401212551844</v>
+        <v>47.40368172576079</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45251562569493</v>
+        <v>75.07284602545258</v>
       </c>
       <c r="M37" t="n">
         <v>73.43704340548099</v>
       </c>
       <c r="N37" t="n">
-        <v>20.19462112447484</v>
+        <v>64.81495152423248</v>
       </c>
       <c r="O37" t="n">
-        <v>81.98876160400093</v>
+        <v>81.98876160400091</v>
       </c>
       <c r="P37" t="n">
-        <v>97.39263765537781</v>
+        <v>52.77230725562016</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>90.47798657641169</v>
+        <v>48.1381236455793</v>
       </c>
       <c r="K38" t="n">
         <v>20.89554029218465</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>33.26858891506615</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.071274015766235</v>
       </c>
       <c r="P38" t="n">
         <v>6.047882272840837</v>
@@ -10986,19 +10986,19 @@
         <v>47.40368172576079</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45251562569493</v>
+        <v>75.07284602545258</v>
       </c>
       <c r="M40" t="n">
-        <v>71.63420177316756</v>
+        <v>73.43704340548099</v>
       </c>
       <c r="N40" t="n">
         <v>64.81495152423248</v>
       </c>
       <c r="O40" t="n">
-        <v>83.79160323631436</v>
+        <v>81.98876160400091</v>
       </c>
       <c r="P40" t="n">
-        <v>97.39263765537781</v>
+        <v>52.77230725562016</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>47.40368172576079</v>
+        <v>92.02401212551844</v>
       </c>
       <c r="L43" t="n">
-        <v>73.27000439313915</v>
+        <v>75.07284602545258</v>
       </c>
       <c r="M43" t="n">
-        <v>73.43704340548099</v>
+        <v>28.81671300572334</v>
       </c>
       <c r="N43" t="n">
-        <v>64.81495152423248</v>
+        <v>63.01210989191905</v>
       </c>
       <c r="O43" t="n">
-        <v>83.79160323631436</v>
+        <v>39.17127283655671</v>
       </c>
       <c r="P43" t="n">
-        <v>52.77230725562016</v>
+        <v>97.39263765537781</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,7 +11299,7 @@
         <v>48.1381236455793</v>
       </c>
       <c r="K44" t="n">
-        <v>63.23540322301705</v>
+        <v>20.89554029218465</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.047882272840837</v>
+        <v>48.38774520367322</v>
       </c>
       <c r="Q44" t="n">
         <v>53.20104771330261</v>
@@ -11460,19 +11460,19 @@
         <v>92.02401212551844</v>
       </c>
       <c r="L46" t="n">
-        <v>73.27000439313915</v>
+        <v>30.45251562569493</v>
       </c>
       <c r="M46" t="n">
-        <v>73.43704340548099</v>
+        <v>28.81671300572334</v>
       </c>
       <c r="N46" t="n">
-        <v>64.81495152423248</v>
+        <v>63.01210989191905</v>
       </c>
       <c r="O46" t="n">
-        <v>39.17127283655671</v>
+        <v>83.79160323631436</v>
       </c>
       <c r="P46" t="n">
-        <v>52.77230725562016</v>
+        <v>97.39263765537781</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.1135112637229</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.2557153419538</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.7367906719579</v>
       </c>
       <c r="H11" t="n">
-        <v>323.4375490080791</v>
+        <v>278.8172186083215</v>
       </c>
       <c r="I11" t="n">
         <v>150.1047238988187</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.881879153665125</v>
+        <v>12.20062253731625</v>
       </c>
       <c r="S11" t="n">
         <v>173.3360558973459</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.1107702787114</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.9363516399471</v>
+        <v>341.617608256296</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>104.1435247225042</v>
       </c>
       <c r="I12" t="n">
-        <v>60.54941750861801</v>
+        <v>15.92908710886036</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>196.7875833572381</v>
       </c>
       <c r="U12" t="n">
-        <v>181.2659296136832</v>
+        <v>225.8862600134408</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>207.074652761162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.1526548037198</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>103.9951426184547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,10 +23436,10 @@
         <v>155.9819326198817</v>
       </c>
       <c r="I13" t="n">
-        <v>95.02490677818508</v>
+        <v>134.3264937942916</v>
       </c>
       <c r="J13" t="n">
-        <v>43.69739013146057</v>
+        <v>31.73892550376057</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.34312238840652</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>101.0892608916642</v>
@@ -23472,7 +23472,7 @@
         <v>180.3239678760165</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2807150013525</v>
+        <v>241.6603846015949</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23512,7 +23512,7 @@
         <v>413.7367906719579</v>
       </c>
       <c r="H14" t="n">
-        <v>278.8172186083215</v>
+        <v>323.4375490080791</v>
       </c>
       <c r="I14" t="n">
         <v>150.1047238988187</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.20062253731625</v>
+        <v>12.20062253731597</v>
       </c>
       <c r="S14" t="n">
-        <v>128.7157254975883</v>
+        <v>128.715725497588</v>
       </c>
       <c r="T14" t="n">
         <v>216.2409172581234</v>
       </c>
       <c r="U14" t="n">
-        <v>206.6000467606247</v>
+        <v>251.2203771603823</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.1107702787111</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>341.6176082562956</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>128.0881685885578</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.0247500556433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.4488819936262</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.20407472058722</v>
+        <v>136.5056617366937</v>
       </c>
       <c r="H15" t="n">
         <v>104.1435247225042</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.516971218791809</v>
+        <v>3.516971218791511</v>
       </c>
       <c r="S15" t="n">
-        <v>156.1203740367365</v>
+        <v>111.5000436369785</v>
       </c>
       <c r="T15" t="n">
         <v>196.7875833572381</v>
@@ -23633,7 +23633,7 @@
         <v>225.8862600134408</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.4990001333185</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.5303931658308</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6264906988702</v>
+        <v>127.945234082521</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6682191144972</v>
+        <v>167.2885495142549</v>
       </c>
       <c r="H16" t="n">
         <v>155.9819326198817</v>
@@ -23700,10 +23700,10 @@
         <v>27.34312238840652</v>
       </c>
       <c r="R16" t="n">
-        <v>101.0892608916642</v>
+        <v>101.0892608916639</v>
       </c>
       <c r="S16" t="n">
-        <v>211.7751615702561</v>
+        <v>167.1548311704981</v>
       </c>
       <c r="T16" t="n">
         <v>224.9442982757741</v>
@@ -23712,7 +23712,7 @@
         <v>286.2807150013525</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>207.51731292407</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>338.1135112637226</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>369.1164602722002</v>
+        <v>413.7367906719579</v>
       </c>
       <c r="H17" t="n">
-        <v>278.8172186083215</v>
+        <v>323.4375490080791</v>
       </c>
       <c r="I17" t="n">
         <v>150.1047238988187</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>12.20062253731622</v>
+        <v>51.50220955342277</v>
       </c>
       <c r="S17" t="n">
         <v>173.3360558973459</v>
@@ -23791,16 +23791,16 @@
         <v>251.2203771603823</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>288.4506714540281</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>304.6206383176551</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>325.1107702787111</v>
       </c>
       <c r="Y17" t="n">
-        <v>341.6176082562959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>136.5056617366937</v>
       </c>
       <c r="H18" t="n">
-        <v>59.52319432274653</v>
+        <v>104.1435247225042</v>
       </c>
       <c r="I18" t="n">
         <v>60.54941750861801</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.835714602442906</v>
+        <v>3.516971218791511</v>
       </c>
       <c r="S18" t="n">
-        <v>111.5000436369788</v>
+        <v>116.8187870206297</v>
       </c>
       <c r="T18" t="n">
         <v>196.7875833572381</v>
@@ -23870,16 +23870,16 @@
         <v>225.8862600134408</v>
       </c>
       <c r="V18" t="n">
-        <v>188.1802567496676</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>161.1526548037195</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>161.0623653775464</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>140.5303931658305</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,22 +23937,22 @@
         <v>27.34312238840652</v>
       </c>
       <c r="R19" t="n">
-        <v>101.0892608916641</v>
+        <v>145.7095912914218</v>
       </c>
       <c r="S19" t="n">
-        <v>167.1548311704984</v>
+        <v>211.7751615702561</v>
       </c>
       <c r="T19" t="n">
-        <v>224.9442982757741</v>
+        <v>180.3239678760162</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2807150013525</v>
+        <v>241.6603846015946</v>
       </c>
       <c r="V19" t="n">
-        <v>207.5173129240703</v>
+        <v>207.51731292407</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2214113204845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>338.1135112637229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6525613712499</v>
+        <v>320.6525613712496</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>362.2557153419535</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7367906719579</v>
+        <v>369.1164602722</v>
       </c>
       <c r="H20" t="n">
         <v>323.4375490080791</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>330.4295136623625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>341.6176082562959</v>
+        <v>346.9363516399468</v>
       </c>
     </row>
     <row r="21">
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.835714602442906</v>
+        <v>3.516971218791511</v>
       </c>
       <c r="S21" t="n">
-        <v>156.1203740367365</v>
+        <v>111.5000436369785</v>
       </c>
       <c r="T21" t="n">
         <v>196.7875833572381</v>
       </c>
       <c r="U21" t="n">
-        <v>181.2659296136831</v>
+        <v>225.8862600134408</v>
       </c>
       <c r="V21" t="n">
-        <v>188.1802567496676</v>
+        <v>188.1802567496673</v>
       </c>
       <c r="W21" t="n">
-        <v>207.0746527611619</v>
+        <v>212.3933961448128</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>155.2883564709278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>145.7095912914218</v>
+        <v>101.0892608916639</v>
       </c>
       <c r="S22" t="n">
-        <v>167.1548311704984</v>
+        <v>167.1548311704981</v>
       </c>
       <c r="T22" t="n">
-        <v>224.9442982757741</v>
+        <v>180.3239678760162</v>
       </c>
       <c r="U22" t="n">
         <v>286.2807150013525</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>274.5645337088907</v>
       </c>
       <c r="X22" t="n">
-        <v>181.0893249892795</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.9643229523371</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>318.3649992586992</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>300.9040493662262</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>317.5615276674804</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24265,13 +24265,13 @@
         <v>251.2203771603823</v>
       </c>
       <c r="V23" t="n">
-        <v>263.3834160653536</v>
+        <v>271.0561820800035</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>284.8721263126317</v>
       </c>
       <c r="X23" t="n">
-        <v>313.0350242883376</v>
+        <v>305.3622582736877</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,22 +24287,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>108.3396565835344</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>83.07622315985743</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>80.70036998860255</v>
       </c>
       <c r="G24" t="n">
         <v>136.5056617366937</v>
       </c>
       <c r="H24" t="n">
-        <v>104.1435247225042</v>
+        <v>95.58474995092226</v>
       </c>
       <c r="I24" t="n">
         <v>60.54941750861801</v>
@@ -24338,10 +24338,10 @@
         <v>156.1203740367365</v>
       </c>
       <c r="T24" t="n">
-        <v>196.7875833572381</v>
+        <v>132.4187409524568</v>
       </c>
       <c r="U24" t="n">
-        <v>217.3274852418589</v>
+        <v>225.8862600134408</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>141.4041427986962</v>
+        <v>141.4041427986961</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.463137777156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.5507447084965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>84.24663061343104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>81.05220561814991</v>
       </c>
       <c r="G25" t="n">
         <v>167.2885495142549</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.34312238840652</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>145.7095912914218</v>
       </c>
       <c r="S25" t="n">
-        <v>211.7751615702561</v>
+        <v>147.4063191654747</v>
       </c>
       <c r="T25" t="n">
         <v>224.9442982757741</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2807150013525</v>
+        <v>256.9277609996277</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>349.4891747839744</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>317.5615276674804</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.7367906719579</v>
+        <v>349.3679482671766</v>
       </c>
       <c r="H26" t="n">
         <v>323.4375490080791</v>
       </c>
       <c r="I26" t="n">
-        <v>150.1047238988187</v>
+        <v>144.9108570621101</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>173.3360558973459</v>
       </c>
       <c r="T26" t="n">
-        <v>216.2409172581234</v>
+        <v>151.872074853342</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2203771603823</v>
+        <v>186.851534755601</v>
       </c>
       <c r="V26" t="n">
-        <v>263.3834160653536</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>284.8721263126317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>157.9744088782854</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>97.12957916910625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>72.13681933191241</v>
+        <v>136.5056617366937</v>
       </c>
       <c r="H27" t="n">
-        <v>39.77468231772289</v>
+        <v>104.1435247225042</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>60.54941750861801</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.13730161854946</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>156.1203740367365</v>
+        <v>91.75153163195515</v>
       </c>
       <c r="T27" t="n">
-        <v>196.7875833572381</v>
+        <v>132.4187409524568</v>
       </c>
       <c r="U27" t="n">
         <v>225.8862600134408</v>
@@ -24584,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>187.3261407561383</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>115.463137777156</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.34312238840652</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>145.7095912914218</v>
+        <v>81.34074888664048</v>
       </c>
       <c r="S28" t="n">
         <v>211.7751615702561</v>
       </c>
       <c r="T28" t="n">
-        <v>160.5754558709928</v>
+        <v>224.9442982757741</v>
       </c>
       <c r="U28" t="n">
-        <v>221.9118725965712</v>
+        <v>286.2807150013525</v>
       </c>
       <c r="V28" t="n">
-        <v>187.7688009190467</v>
+        <v>222.7846893221032</v>
       </c>
       <c r="W28" t="n">
-        <v>229.8269219464596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>161.3408129842558</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>318.3649992586992</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>325.2342936821304</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.7367906719579</v>
+        <v>349.3679482671766</v>
       </c>
       <c r="H29" t="n">
         <v>323.4375490080791</v>
@@ -24730,19 +24730,19 @@
         <v>51.50220955342277</v>
       </c>
       <c r="S29" t="n">
-        <v>108.9672134925646</v>
+        <v>173.3360558973459</v>
       </c>
       <c r="T29" t="n">
-        <v>151.872074853342</v>
+        <v>216.2409172581234</v>
       </c>
       <c r="U29" t="n">
         <v>251.2203771603823</v>
       </c>
       <c r="V29" t="n">
-        <v>271.0561820800035</v>
+        <v>263.3834160653536</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>284.8721263126317</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>102.164341245086</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>164.1497242167338</v>
       </c>
       <c r="D30" t="n">
-        <v>90.74898917450739</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>48.13730161854946</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>91.75153163195516</v>
+        <v>91.75153163195515</v>
       </c>
       <c r="T30" t="n">
         <v>196.7875833572381</v>
@@ -24821,7 +24821,7 @@
         <v>168.4317447446439</v>
       </c>
       <c r="W30" t="n">
-        <v>187.3261407561383</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.463137777156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>82.06512024178785</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.34312238840652</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>145.7095912914218</v>
@@ -24891,7 +24891,7 @@
         <v>211.7751615702561</v>
       </c>
       <c r="T31" t="n">
-        <v>224.9442982757741</v>
+        <v>195.5913442740493</v>
       </c>
       <c r="U31" t="n">
         <v>286.2807150013525</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.8269219464596</v>
+        <v>222.1541559318097</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>161.3408129842558</v>
       </c>
       <c r="Y31" t="n">
         <v>154.2158109473135</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>326.0377652733492</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>300.9040493662262</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>290.3141992159016</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>349.3679482671766</v>
+        <v>413.7367906719579</v>
       </c>
       <c r="H32" t="n">
         <v>323.4375490080791</v>
@@ -24970,16 +24970,16 @@
         <v>173.3360558973459</v>
       </c>
       <c r="T32" t="n">
-        <v>151.872074853342</v>
+        <v>216.2409172581234</v>
       </c>
       <c r="U32" t="n">
-        <v>186.851534755601</v>
+        <v>251.2203771603823</v>
       </c>
       <c r="V32" t="n">
-        <v>271.0561820800035</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>284.8721263126317</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5056617366937</v>
+        <v>79.80958534656233</v>
       </c>
       <c r="H33" t="n">
         <v>104.1435247225042</v>
@@ -25046,25 +25046,25 @@
         <v>48.13730161854946</v>
       </c>
       <c r="S33" t="n">
-        <v>156.1203740367365</v>
+        <v>91.75153163195515</v>
       </c>
       <c r="T33" t="n">
-        <v>140.0915069671067</v>
+        <v>196.7875833572381</v>
       </c>
       <c r="U33" t="n">
-        <v>161.5174176086595</v>
+        <v>225.8862600134408</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>168.4317447446439</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>141.4041427986962</v>
+        <v>141.4041427986961</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.3138533725231</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>102.8779786938465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>81.05220561814993</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.2885495142549</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.7095912914218</v>
+        <v>81.34074888664048</v>
       </c>
       <c r="S34" t="n">
-        <v>147.4063191654748</v>
+        <v>147.4063191654747</v>
       </c>
       <c r="T34" t="n">
         <v>224.9442982757741</v>
       </c>
       <c r="U34" t="n">
-        <v>256.9277609996277</v>
+        <v>221.9118725965712</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>222.7846893221032</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>320.6525613712499</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>315.3814546045764</v>
       </c>
       <c r="E35" t="n">
-        <v>337.3100396725041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>362.2557153419538</v>
       </c>
       <c r="G35" t="n">
-        <v>413.7367906719579</v>
+        <v>369.1164602722002</v>
       </c>
       <c r="H35" t="n">
         <v>323.4375490080791</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.20062253731625</v>
+        <v>6.881879153665125</v>
       </c>
       <c r="S35" t="n">
         <v>173.3360558973459</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>325.1107702787114</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>113.0247500556433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25292,7 +25292,7 @@
         <v>186.5846729973343</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>188.1802567496676</v>
       </c>
       <c r="W36" t="n">
         <v>207.074652761162</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>127.9452340825213</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.9951426184547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>100.8007176231736</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>122.6682191144972</v>
+        <v>167.2885495142549</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9819326198817</v>
+        <v>144.0234679921817</v>
       </c>
       <c r="I37" t="n">
         <v>134.3264937942916</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.34312238840652</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.7095912914218</v>
+        <v>101.0892608916642</v>
       </c>
       <c r="S37" t="n">
         <v>211.7751615702561</v>
       </c>
       <c r="T37" t="n">
-        <v>224.9442982757741</v>
+        <v>180.3239678760165</v>
       </c>
       <c r="U37" t="n">
         <v>286.2807150013525</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>241.9026679368334</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25408,10 +25408,10 @@
         <v>413.7367906719579</v>
       </c>
       <c r="H38" t="n">
-        <v>278.8172186083215</v>
+        <v>323.4375490080791</v>
       </c>
       <c r="I38" t="n">
-        <v>105.484393499061</v>
+        <v>150.1047238988187</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.50220955342277</v>
+        <v>6.881879153665125</v>
       </c>
       <c r="S38" t="n">
         <v>173.3360558973459</v>
@@ -25447,10 +25447,10 @@
         <v>216.2409172581234</v>
       </c>
       <c r="U38" t="n">
-        <v>211.9187901442758</v>
+        <v>251.2203771603823</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>283.1319280703773</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>325.1107702787114</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>346.9363516399471</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>91.88533133693608</v>
+        <v>97.20407472058722</v>
       </c>
       <c r="H39" t="n">
-        <v>104.1435247225042</v>
+        <v>59.52319432274656</v>
       </c>
       <c r="I39" t="n">
-        <v>21.2478304925115</v>
+        <v>15.92908710886036</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.516971218791809</v>
+        <v>48.13730161854946</v>
       </c>
       <c r="S39" t="n">
         <v>156.1203740367365</v>
       </c>
       <c r="T39" t="n">
-        <v>152.1672529574805</v>
+        <v>196.7875833572381</v>
       </c>
       <c r="U39" t="n">
         <v>225.8862600134408</v>
@@ -25532,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>207.074652761162</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>103.9951426184547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>101.8136322468115</v>
+        <v>107.1323756304627</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>100.8007176231736</v>
       </c>
       <c r="G40" t="n">
-        <v>127.9869624981484</v>
+        <v>122.6682191144972</v>
       </c>
       <c r="H40" t="n">
         <v>155.9819326198817</v>
@@ -25602,7 +25602,7 @@
         <v>211.7751615702561</v>
       </c>
       <c r="T40" t="n">
-        <v>224.9442982757741</v>
+        <v>180.3239678760165</v>
       </c>
       <c r="U40" t="n">
         <v>286.2807150013525</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>181.0893249892795</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>338.1135112637229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>315.3814546045764</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>362.2557153419538</v>
       </c>
       <c r="G41" t="n">
-        <v>374.4352036558514</v>
+        <v>413.7367906719579</v>
       </c>
       <c r="H41" t="n">
         <v>323.4375490080791</v>
@@ -25681,10 +25681,10 @@
         <v>173.3360558973459</v>
       </c>
       <c r="T41" t="n">
-        <v>171.6205868583657</v>
+        <v>216.2409172581234</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2203771603823</v>
+        <v>206.6000467606247</v>
       </c>
       <c r="V41" t="n">
         <v>283.1319280703773</v>
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>128.0881685885581</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>108.1434785485322</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>100.4488819936262</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5056617366937</v>
+        <v>97.20407472058722</v>
       </c>
       <c r="H42" t="n">
         <v>104.1435247225042</v>
@@ -25760,16 +25760,16 @@
         <v>156.1203740367365</v>
       </c>
       <c r="T42" t="n">
-        <v>196.7875833572381</v>
+        <v>152.1672529574805</v>
       </c>
       <c r="U42" t="n">
-        <v>181.2659296136832</v>
+        <v>225.8862600134408</v>
       </c>
       <c r="V42" t="n">
-        <v>188.1802567496676</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>207.074652761162</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>122.6264906988702</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>101.8136322468115</v>
       </c>
       <c r="F43" t="n">
-        <v>100.8007176231736</v>
+        <v>106.1194610068247</v>
       </c>
       <c r="G43" t="n">
-        <v>122.6682191144972</v>
+        <v>167.2885495142549</v>
       </c>
       <c r="H43" t="n">
         <v>155.9819326198817</v>
       </c>
       <c r="I43" t="n">
-        <v>95.02490677818508</v>
+        <v>134.3264937942916</v>
       </c>
       <c r="J43" t="n">
         <v>43.69739013146057</v>
@@ -25842,7 +25842,7 @@
         <v>224.9442982757741</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2807150013525</v>
+        <v>241.6603846015949</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>369.1164602722002</v>
+        <v>413.7367906719579</v>
       </c>
       <c r="H44" t="n">
-        <v>278.8172186083215</v>
+        <v>323.4375490080791</v>
       </c>
       <c r="I44" t="n">
-        <v>150.1047238988187</v>
+        <v>110.8031368827122</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>216.2409172581234</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2203771603823</v>
+        <v>206.6000467606247</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.9393817013065</v>
+        <v>304.6206383176553</v>
       </c>
       <c r="X44" t="n">
         <v>325.1107702787114</v>
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8247351648811</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>91.88533133693608</v>
+        <v>136.5056617366937</v>
       </c>
       <c r="H45" t="n">
         <v>104.1435247225042</v>
       </c>
       <c r="I45" t="n">
-        <v>15.92908710886036</v>
+        <v>60.54941750861801</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.13730161854946</v>
+        <v>3.516971218791809</v>
       </c>
       <c r="S45" t="n">
         <v>156.1203740367365</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>161.1526548037198</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>161.0623653775467</v>
       </c>
     </row>
     <row r="46">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.9951426184547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>101.8136322468115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.2885495142549</v>
       </c>
       <c r="H46" t="n">
-        <v>111.361602220124</v>
+        <v>155.9819326198817</v>
       </c>
       <c r="I46" t="n">
         <v>134.3264937942916</v>
@@ -26079,19 +26079,19 @@
         <v>224.9442982757741</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2807150013525</v>
+        <v>246.979127985246</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>207.5173129240704</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>241.9026679368334</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>181.0893249892795</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.2830663359883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>298705.9234682003</v>
+        <v>298705.9234682005</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>298705.9234682004</v>
+        <v>298705.9234682005</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>298705.9234682004</v>
+        <v>298705.9234682005</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>314970.5273769775</v>
+        <v>314970.5273769776</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>314970.5273769776</v>
+        <v>314970.5273769775</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298705.9234682003</v>
+        <v>298705.9234682001</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698529</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
         <v>195113.4967477696</v>
       </c>
       <c r="F2" t="n">
-        <v>195113.4967477696</v>
+        <v>195113.4967477699</v>
       </c>
       <c r="G2" t="n">
-        <v>195113.4967477696</v>
+        <v>195113.4967477699</v>
       </c>
       <c r="H2" t="n">
-        <v>195113.4967477697</v>
+        <v>195113.4967477699</v>
       </c>
       <c r="I2" t="n">
         <v>203225.8434352054</v>
@@ -26346,16 +26346,16 @@
         <v>203225.8434352054</v>
       </c>
       <c r="M2" t="n">
-        <v>195113.4967477697</v>
+        <v>195113.4967477696</v>
       </c>
       <c r="N2" t="n">
         <v>195113.4967477696</v>
       </c>
       <c r="O2" t="n">
-        <v>195113.4967477696</v>
+        <v>195113.4967477697</v>
       </c>
       <c r="P2" t="n">
-        <v>195113.4967477696</v>
+        <v>195113.4967477697</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5251.54406088789</v>
+        <v>5251.544060887824</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6198.156631241295</v>
+        <v>6198.156631241299</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>22894.49996363833</v>
       </c>
       <c r="F4" t="n">
-        <v>22894.49996363833</v>
+        <v>22894.49996363838</v>
       </c>
       <c r="G4" t="n">
-        <v>22894.49996363834</v>
+        <v>22894.4999636384</v>
       </c>
       <c r="H4" t="n">
-        <v>22894.49996363834</v>
+        <v>22894.49996363839</v>
       </c>
       <c r="I4" t="n">
         <v>27707.04902504453</v>
@@ -26481,13 +26481,13 @@
         <v>11204.65433214417</v>
       </c>
       <c r="F5" t="n">
-        <v>11204.65433214417</v>
+        <v>11204.65433214419</v>
       </c>
       <c r="G5" t="n">
-        <v>11204.65433214418</v>
+        <v>11204.65433214419</v>
       </c>
       <c r="H5" t="n">
-        <v>11204.65433214418</v>
+        <v>11204.65433214419</v>
       </c>
       <c r="I5" t="n">
         <v>12405.36386204961</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92687.64985944003</v>
+        <v>92727.3720602534</v>
       </c>
       <c r="C6" t="n">
-        <v>92687.64985944027</v>
+        <v>92727.37206025328</v>
       </c>
       <c r="D6" t="n">
-        <v>92687.6498594405</v>
+        <v>92727.3720602534</v>
       </c>
       <c r="E6" t="n">
-        <v>-179055.2891154292</v>
+        <v>-166637.0957442757</v>
       </c>
       <c r="F6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885258</v>
       </c>
       <c r="G6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885258</v>
       </c>
       <c r="H6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885258</v>
       </c>
       <c r="I6" t="n">
-        <v>144343.6299452786</v>
+        <v>156510.060833029</v>
       </c>
       <c r="J6" t="n">
-        <v>149595.1740061664</v>
+        <v>161761.6048939168</v>
       </c>
       <c r="K6" t="n">
-        <v>149595.1740061665</v>
+        <v>161761.6048939168</v>
       </c>
       <c r="L6" t="n">
-        <v>149595.1740061664</v>
+        <v>161761.6048939168</v>
       </c>
       <c r="M6" t="n">
-        <v>141018.1931861308</v>
+        <v>153436.3865572843</v>
       </c>
       <c r="N6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885256</v>
       </c>
       <c r="O6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885257</v>
       </c>
       <c r="P6" t="n">
-        <v>147216.3498173721</v>
+        <v>159634.5431885257</v>
       </c>
     </row>
   </sheetData>
@@ -26801,25 +26801,25 @@
         <v>44.62033039975765</v>
       </c>
       <c r="F4" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="G4" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="H4" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="I4" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="J4" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="K4" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="L4" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M4" t="n">
         <v>44.62033039975765</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.74851200502363</v>
+        <v>19.74851200502339</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>24.87181839473401</v>
+        <v>24.87181839473403</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>181.9211968847349</v>
       </c>
       <c r="M12" t="n">
-        <v>160.1858049789829</v>
+        <v>186.754364321776</v>
       </c>
       <c r="N12" t="n">
         <v>175.962042483091</v>
       </c>
       <c r="O12" t="n">
-        <v>187.2165748442021</v>
+        <v>160.648015501409</v>
       </c>
       <c r="P12" t="n">
         <v>159.9936384197068</v>
@@ -32007,10 +32007,10 @@
         <v>247.1181564546787</v>
       </c>
       <c r="M14" t="n">
-        <v>274.9665636270304</v>
+        <v>274.9665636270307</v>
       </c>
       <c r="N14" t="n">
-        <v>274.0333939963485</v>
+        <v>274.0333939963489</v>
       </c>
       <c r="O14" t="n">
         <v>263.8444261733647</v>
@@ -32083,16 +32083,16 @@
         <v>135.2952773599694</v>
       </c>
       <c r="L15" t="n">
-        <v>155.3526375419418</v>
+        <v>181.9211968847349</v>
       </c>
       <c r="M15" t="n">
-        <v>186.754364321776</v>
+        <v>186.7543643217763</v>
       </c>
       <c r="N15" t="n">
-        <v>175.962042483091</v>
+        <v>175.9620424830912</v>
       </c>
       <c r="O15" t="n">
-        <v>187.2165748442021</v>
+        <v>160.6480155014096</v>
       </c>
       <c r="P15" t="n">
         <v>159.9936384197068</v>
@@ -32247,7 +32247,7 @@
         <v>274.9665636270304</v>
       </c>
       <c r="N17" t="n">
-        <v>274.0333939963486</v>
+        <v>274.0333939963489</v>
       </c>
       <c r="O17" t="n">
         <v>263.8444261733647</v>
@@ -32323,13 +32323,13 @@
         <v>181.9211968847349</v>
       </c>
       <c r="M18" t="n">
-        <v>186.754364321776</v>
+        <v>160.1858049789835</v>
       </c>
       <c r="N18" t="n">
-        <v>175.962042483091</v>
+        <v>175.9620424830912</v>
       </c>
       <c r="O18" t="n">
-        <v>160.6480155014091</v>
+        <v>187.2165748442024</v>
       </c>
       <c r="P18" t="n">
         <v>159.9936384197068</v>
@@ -32484,7 +32484,7 @@
         <v>274.9665636270304</v>
       </c>
       <c r="N20" t="n">
-        <v>274.0333939963486</v>
+        <v>274.0333939963489</v>
       </c>
       <c r="O20" t="n">
         <v>263.8444261733647</v>
@@ -32560,13 +32560,13 @@
         <v>181.9211968847349</v>
       </c>
       <c r="M21" t="n">
-        <v>160.185804978983</v>
+        <v>160.1858049789835</v>
       </c>
       <c r="N21" t="n">
-        <v>175.962042483091</v>
+        <v>175.9620424830912</v>
       </c>
       <c r="O21" t="n">
-        <v>187.2165748442021</v>
+        <v>187.2165748442024</v>
       </c>
       <c r="P21" t="n">
         <v>159.9936384197068</v>
@@ -32800,7 +32800,7 @@
         <v>206.5028763267997</v>
       </c>
       <c r="N24" t="n">
-        <v>195.7105544881147</v>
+        <v>195.7105544881148</v>
       </c>
       <c r="O24" t="n">
         <v>199.3471198344856</v>
@@ -33034,13 +33034,13 @@
         <v>181.9211968847349</v>
       </c>
       <c r="M27" t="n">
-        <v>206.5028763267997</v>
+        <v>206.5028763267998</v>
       </c>
       <c r="N27" t="n">
         <v>195.7105544881146</v>
       </c>
       <c r="O27" t="n">
-        <v>199.3471198344857</v>
+        <v>199.3471198344856</v>
       </c>
       <c r="P27" t="n">
         <v>159.9936384197068</v>
@@ -33280,7 +33280,7 @@
         <v>199.3471198344856</v>
       </c>
       <c r="P30" t="n">
-        <v>159.9936384197068</v>
+        <v>159.9936384197069</v>
       </c>
       <c r="Q30" t="n">
         <v>106.9515102339829</v>
@@ -33979,7 +33979,7 @@
         <v>135.2952773599694</v>
       </c>
       <c r="L39" t="n">
-        <v>181.9211968847349</v>
+        <v>155.3526375419418</v>
       </c>
       <c r="M39" t="n">
         <v>186.754364321776</v>
@@ -33988,10 +33988,10 @@
         <v>175.962042483091</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6672465067856</v>
+        <v>187.2165748442021</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>159.9936384197068</v>
       </c>
       <c r="Q39" t="n">
         <v>106.9515102339829</v>
@@ -34456,13 +34456,13 @@
         <v>181.9211968847349</v>
       </c>
       <c r="M45" t="n">
-        <v>160.1858049789829</v>
+        <v>186.754364321776</v>
       </c>
       <c r="N45" t="n">
         <v>175.962042483091</v>
       </c>
       <c r="O45" t="n">
-        <v>187.2165748442021</v>
+        <v>160.648015501409</v>
       </c>
       <c r="P45" t="n">
         <v>159.9936384197068</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.3398629308324</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.3517414846915</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="M11" t="n">
         <v>44.62033039975765</v>
@@ -35424,7 +35424,7 @@
         <v>44.62033039975765</v>
       </c>
       <c r="O11" t="n">
-        <v>33.74621475167797</v>
+        <v>42.8174887674442</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M12" t="n">
-        <v>18.0517710569646</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="N12" t="n">
         <v>44.62033039975765</v>
       </c>
       <c r="O12" t="n">
-        <v>44.62033039975765</v>
+        <v>18.0517710569646</v>
       </c>
       <c r="P12" t="n">
         <v>26.01923100537658</v>
@@ -35576,16 +35576,16 @@
         <v>44.62033039975765</v>
       </c>
       <c r="M13" t="n">
+        <v>42.81748876744422</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="N13" t="n">
-        <v>42.8174887674442</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>44.62033039975765</v>
+        <v>42.8174887674445</v>
       </c>
       <c r="M14" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="N14" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O14" t="n">
-        <v>33.74621475167797</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="P14" t="n">
-        <v>9.071274015766242</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.79825776206762</v>
+        <v>43.36681710486067</v>
       </c>
       <c r="M15" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="N15" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O15" t="n">
-        <v>44.62033039975765</v>
+        <v>18.05177105696517</v>
       </c>
       <c r="P15" t="n">
         <v>26.01923100537658</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>42.8174887674445</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="M16" t="n">
-        <v>44.62033039975765</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="N16" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>42.8174887674442</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>44.62033039975765</v>
       </c>
       <c r="N17" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O17" t="n">
         <v>33.74621475167797</v>
       </c>
       <c r="P17" t="n">
-        <v>42.3398629308325</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>42.33986293083327</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M18" t="n">
-        <v>44.62033039975768</v>
+        <v>18.05177105696517</v>
       </c>
       <c r="N18" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O18" t="n">
-        <v>18.05177105696468</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="P18" t="n">
         <v>26.01923100537658</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>42.81748876744426</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="N19" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O19" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>42.81748876744449</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>42.33986293083328</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>44.62033039975765</v>
       </c>
       <c r="N20" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O20" t="n">
         <v>33.74621475167797</v>
@@ -36141,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.3398629308325</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M21" t="n">
-        <v>18.0517710569647</v>
+        <v>18.05177105696517</v>
       </c>
       <c r="N21" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O21" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="P21" t="n">
         <v>26.01923100537658</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>44.62033039975768</v>
+        <v>42.8174887674445</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="M22" t="n">
-        <v>42.81748876744426</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="N22" t="n">
-        <v>44.62033039975768</v>
+        <v>44.62033039975795</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>44.62033039975768</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>62.13647425500771</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>11.3517414846915</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M23" t="n">
         <v>44.62033039975765</v>
@@ -36375,10 +36375,10 @@
         <v>33.74621475167797</v>
       </c>
       <c r="P23" t="n">
-        <v>50.78473277031617</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M24" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N24" t="n">
-        <v>64.36884240478142</v>
+        <v>64.36884240478147</v>
       </c>
       <c r="O24" t="n">
         <v>56.75087539004119</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>59.34008461889174</v>
       </c>
       <c r="L25" t="n">
-        <v>61.76808109549726</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M25" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N25" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O25" t="n">
-        <v>64.36884240478132</v>
+        <v>2.427996476605489</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>50.7847327703162</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>64.36884240478132</v>
+        <v>11.3517414846915</v>
       </c>
       <c r="M26" t="n">
-        <v>61.76808109549724</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="N26" t="n">
-        <v>64.36884240478132</v>
+        <v>50.0027464986166</v>
       </c>
       <c r="O26" t="n">
-        <v>64.36884240478132</v>
+        <v>33.74621475167797</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M27" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478146</v>
       </c>
       <c r="N27" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O27" t="n">
-        <v>56.75087539004129</v>
+        <v>56.75087539004119</v>
       </c>
       <c r="P27" t="n">
         <v>26.01923100537658</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M28" t="n">
-        <v>61.76808109549724</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N28" t="n">
-        <v>64.36884240478132</v>
+        <v>61.76808109549723</v>
       </c>
       <c r="O28" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>11.3517414846915</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M29" t="n">
-        <v>44.62033039975765</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N29" t="n">
-        <v>50.0027464986166</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O29" t="n">
-        <v>33.74621475167797</v>
+        <v>61.76808109549723</v>
       </c>
       <c r="P29" t="n">
-        <v>50.78473277031614</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M30" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N30" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O30" t="n">
         <v>56.75087539004119</v>
       </c>
       <c r="P30" t="n">
-        <v>26.01923100537658</v>
+        <v>26.01923100537671</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M31" t="n">
-        <v>61.76808109549726</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O31" t="n">
-        <v>64.36884240478132</v>
+        <v>61.76808109549723</v>
       </c>
       <c r="P31" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>11.3517414846915</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M32" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N32" t="n">
-        <v>50.41633961080572</v>
+        <v>61.76808109549723</v>
       </c>
       <c r="O32" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M33" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N33" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O33" t="n">
         <v>56.75087539004119</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>59.34008461889174</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="M34" t="n">
-        <v>2.427996476605525</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="N34" t="n">
-        <v>64.36884240478132</v>
+        <v>64.36884240478133</v>
       </c>
       <c r="O34" t="n">
-        <v>64.36884240478132</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>64.36884240478132</v>
+        <v>61.76808109549723</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>11.3517414846915</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="M35" t="n">
         <v>44.62033039975765</v>
@@ -37320,13 +37320,13 @@
         <v>44.62033039975765</v>
       </c>
       <c r="O35" t="n">
-        <v>33.74621475167797</v>
+        <v>42.8174887674442</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.33986293083238</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>44.62033039975765</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="O37" t="n">
-        <v>42.81748876744422</v>
+        <v>42.8174887674442</v>
       </c>
       <c r="P37" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>42.3398629308324</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>11.3517414846915</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="M38" t="n">
         <v>44.62033039975765</v>
@@ -37557,7 +37557,7 @@
         <v>44.62033039975765</v>
       </c>
       <c r="O38" t="n">
-        <v>33.74621475167797</v>
+        <v>42.8174887674442</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>43.36681710486067</v>
+        <v>16.79825776206762</v>
       </c>
       <c r="M39" t="n">
         <v>44.62033039975765</v>
@@ -37636,10 +37636,10 @@
         <v>44.62033039975765</v>
       </c>
       <c r="O39" t="n">
-        <v>44.07100206234119</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>26.01923100537658</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="M40" t="n">
-        <v>42.81748876744422</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="N40" t="n">
         <v>44.62033039975765</v>
       </c>
       <c r="O40" t="n">
-        <v>44.62033039975765</v>
+        <v>42.8174887674442</v>
       </c>
       <c r="P40" t="n">
-        <v>44.62033039975765</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="L43" t="n">
+        <v>44.62033039975765</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>42.81748876744422</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="N43" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="O43" t="n">
-        <v>44.62033039975765</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>42.3398629308324</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>11.3517414846915</v>
@@ -38034,7 +38034,7 @@
         <v>33.74621475167797</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.33986293083238</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>43.36681710486067</v>
       </c>
       <c r="M45" t="n">
-        <v>18.0517710569646</v>
+        <v>44.62033039975765</v>
       </c>
       <c r="N45" t="n">
         <v>44.62033039975765</v>
       </c>
       <c r="O45" t="n">
-        <v>44.62033039975765</v>
+        <v>18.0517710569646</v>
       </c>
       <c r="P45" t="n">
         <v>26.01923100537658</v>
@@ -38180,19 +38180,19 @@
         <v>44.62033039975765</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>42.81748876744422</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>44.62033039975765</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>44.62033039975765</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
